--- a/templates/RSTK-9118_SYDATA-LocAdd.xlsx
+++ b/templates/RSTK-9118_SYDATA-LocAdd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F21F8AE-EE25-4A26-B166-6BE5DA5C283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B9B3E-E38B-4378-B517-7993C801DABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
   <si>
     <t>Site</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lot and serial </t>
+  </si>
+  <si>
+    <t>MNK60</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27C83A1-FD92-4DBC-B319-5C6D88BB6B11}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,9 +631,6 @@
       <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
       <c r="L2">
         <v>10</v>
       </c>
@@ -992,7 +992,7 @@
         <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
         <v>39</v>
@@ -1045,6 +1045,47 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45058</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>49</v>
       </c>
     </row>
